--- a/public/file_import/2021070320210703siswa.xlsx
+++ b/public/file_import/2021070320210703siswa.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>Muhammad Alghifari</t>
   </si>
@@ -39,74 +39,62 @@
     <t>user</t>
   </si>
   <si>
-    <t>Anwar Ramdhan</t>
-  </si>
-  <si>
-    <t>anwar@gmail.com</t>
-  </si>
-  <si>
-    <t>Unknow</t>
-  </si>
-  <si>
-    <t>0083746356</t>
-  </si>
-  <si>
-    <t>anwar4321</t>
-  </si>
-  <si>
-    <t>Gilang Saputra</t>
-  </si>
-  <si>
-    <t>gilang@gmail.com</t>
-  </si>
-  <si>
-    <t>00837598374</t>
-  </si>
-  <si>
-    <t>gilang4321</t>
-  </si>
-  <si>
-    <t>Raqhin Kusmanadinata</t>
-  </si>
-  <si>
-    <t>raqhin@gmail.com</t>
-  </si>
-  <si>
-    <t>Sanggar Indah Banjaran</t>
-  </si>
-  <si>
-    <t>0047583645</t>
-  </si>
-  <si>
-    <t>raqhin4321</t>
-  </si>
-  <si>
-    <t>Davin Albar</t>
-  </si>
-  <si>
-    <t>davin@gmail.com</t>
-  </si>
-  <si>
-    <t>Sanggar Indah lestari</t>
-  </si>
-  <si>
-    <t>davin4321</t>
-  </si>
-  <si>
-    <t>Agtan Dwiputra</t>
-  </si>
-  <si>
-    <t>agtan@gmail.com</t>
-  </si>
-  <si>
-    <t>agtan4321</t>
+    <t>Nadia Hertisa Isnaeni Putri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hertisanadia44@gmail.com </t>
+  </si>
+  <si>
+    <t>Komplek Permata Kopo C-189</t>
+  </si>
+  <si>
+    <t>0043171547</t>
+  </si>
+  <si>
+    <t>smkn1ktp@01</t>
+  </si>
+  <si>
+    <t>Arianti Apriani Sagita</t>
+  </si>
+  <si>
+    <t>ariantiaprianisagita@gmail.com</t>
+  </si>
+  <si>
+    <t>Kp. Pasanggrahan Rt 02 Rw 06 Kec. Pasirjambu</t>
+  </si>
+  <si>
+    <t>0023620702</t>
+  </si>
+  <si>
+    <t>Ajeng Nurfadillah</t>
+  </si>
+  <si>
+    <t>ajengnurfadilah@gmail.com</t>
+  </si>
+  <si>
+    <t>Jln. Raya Sayuran Rt 08 Rw 07</t>
+  </si>
+  <si>
+    <t>0034169559</t>
+  </si>
+  <si>
+    <t>Tiara Situmorang</t>
+  </si>
+  <si>
+    <t>tiara222324@gmail.com</t>
+  </si>
+  <si>
+    <t>Kp. Pamoyanan Rt03/Rw05</t>
+  </si>
+  <si>
+    <t>0045802564</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -117,6 +105,12 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -140,9 +134,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -448,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,7 +489,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -508,10 +504,10 @@
         <v>9</v>
       </c>
       <c r="F2">
-        <v>193758394</v>
+        <v>192010523</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H2">
         <v>7</v>
@@ -525,7 +521,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -534,22 +530,22 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3">
-        <v>193758274</v>
+        <v>192010505</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3">
         <v>7</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J3" t="s">
         <v>5</v>
@@ -557,7 +553,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -572,7 +568,7 @@
         <v>18</v>
       </c>
       <c r="F4">
-        <v>193847568</v>
+        <v>192010501</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -581,30 +577,27 @@
         <v>7</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="J4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>10</v>
-      </c>
       <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E5">
-        <v>28374658</v>
-      </c>
       <c r="F5">
-        <v>193748593</v>
+        <v>192010533</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -612,48 +605,20 @@
       <c r="H5">
         <v>7</v>
       </c>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6">
-        <v>32847563</v>
-      </c>
-      <c r="F6">
-        <v>194856374</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="H6">
-        <v>7</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="I5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1"/>
-    <hyperlink ref="I6" r:id="rId2" display="agtan@gmaik.com"/>
+    <hyperlink ref="C5" r:id="rId1"/>
+    <hyperlink ref="I5" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>